--- a/spells.xlsx
+++ b/spells.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb76e5660c890129/Personal/Projects/Design/Patherpoint/patherpoint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="584" documentId="114_{DBD43080-8FC1-46DE-8A19-D2432DDAF06C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C3DC5313-A5C3-4479-BD95-53F874A128EB}"/>
+  <xr:revisionPtr revIDLastSave="586" documentId="114_{DBD43080-8FC1-46DE-8A19-D2432DDAF06C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E2931BDD-0D6D-445F-A6E0-24C96BAECBA8}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="2940" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spells" sheetId="1" r:id="rId1"/>
@@ -13601,10 +13601,10 @@
   <dimension ref="A1:RR287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AY104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AW17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA120" sqref="BA120"/>
+      <selection pane="bottomRight" activeCell="AZ22" sqref="AZ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29060,6 +29060,9 @@
       <c r="V22" t="s">
         <v>394</v>
       </c>
+      <c r="AZ22" t="s">
+        <v>3324</v>
+      </c>
       <c r="FS22" t="s">
         <v>1518</v>
       </c>
@@ -29103,9 +29106,6 @@
     <row r="23" spans="1:476" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>134</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>3324</v>
       </c>
       <c r="BW23" t="s">
         <v>742</v>

--- a/spells.xlsx
+++ b/spells.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="738" documentId="114_{DBD43080-8FC1-46DE-8A19-D2432DDAF06C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5E31E782-2155-4041-9512-BF836CF13609}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spells" sheetId="1" r:id="rId1"/>
@@ -10648,14 +10648,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -13439,10 +13432,10 @@
   <dimension ref="A1:RR294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="JY167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="JZ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="KF186" sqref="KF186"/>
+      <selection pane="bottomRight" activeCell="KB2" sqref="KB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49050,7 +49043,7 @@
     <sortCondition ref="A29:A37"/>
   </sortState>
   <conditionalFormatting sqref="A1:A294">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
   </conditionalFormatting>
